--- a/doc/SheetsCounter.xlsx
+++ b/doc/SheetsCounter.xlsx
@@ -438,11 +438,11 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -472,11 +472,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ref="B6:C6" si="1">+SUM(B2:B5)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="D6">
         <f>+SUM(D2:D5)</f>

--- a/doc/SheetsCounter.xlsx
+++ b/doc/SheetsCounter.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,11 +420,11 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C5" si="0">-D3+B3</f>
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -472,11 +472,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ref="B6:C6" si="1">+SUM(B2:B5)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="D6">
         <f>+SUM(D2:D5)</f>

--- a/doc/SheetsCounter.xlsx
+++ b/doc/SheetsCounter.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,11 +420,11 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C5" si="0">-D3+B3</f>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -472,11 +472,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ref="B6:C6" si="1">+SUM(B2:B5)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="D6">
         <f>+SUM(D2:D5)</f>

--- a/doc/SheetsCounter.xlsx
+++ b/doc/SheetsCounter.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,11 +420,11 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C5" si="0">-D3+B3</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -472,11 +472,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ref="B6:C6" si="1">+SUM(B2:B5)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="D6">
         <f>+SUM(D2:D5)</f>
